--- a/demo/tablas_excel/CR/revocando/10_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando/10_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.3232</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0712</v>
+        <v>0.10712</v>
       </c>
       <c r="G3" t="n">
         <v>37.25839999999999</v>
@@ -556,7 +556,7 @@
         <v>0.02577466456296441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5801675045478963</v>
+        <v>0.05801675045478965</v>
       </c>
       <c r="G4" t="n">
         <v>4.665485576729036</v>
@@ -587,7 +587,7 @@
         <v>0.27</v>
       </c>
       <c r="F5" t="n">
-        <v>0.87</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>32.96</v>
@@ -618,7 +618,7 @@
         <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>0.093</v>
       </c>
       <c r="G6" t="n">
         <v>34.04</v>
@@ -649,7 +649,7 @@
         <v>0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>0.96</v>
+        <v>0.096</v>
       </c>
       <c r="G7" t="n">
         <v>35.53</v>
@@ -680,7 +680,7 @@
         <v>0.34</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="G8" t="n">
         <v>39.01</v>
@@ -711,7 +711,7 @@
         <v>0.37</v>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>0.385</v>
       </c>
       <c r="G9" t="n">
         <v>51.59</v>
